--- a/4_aviation/historical_fares/data/data.xlsx
+++ b/4_aviation/historical_fares/data/data.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/cost_of_air_transport/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/historical_fares/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8EE570-70A3-AB43-953C-420CB4911DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFADCC82-4719-CD40-B632-DD5071B751F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{A35E4E3F-0E3D-DE43-9112-76309508C74C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{A35E4E3F-0E3D-DE43-9112-76309508C74C}"/>
   </bookViews>
   <sheets>
     <sheet name="Air Travel Price per Distance" sheetId="4" r:id="rId1"/>
     <sheet name="Road Travel Price per Distance" sheetId="5" r:id="rId2"/>
     <sheet name="Rail Travel Price per Distance" sheetId="1" r:id="rId3"/>
-    <sheet name="Air Travel Price Index" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Air Travel Price Index" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="46">
   <si>
     <t>source</t>
   </si>
@@ -175,14 +176,17 @@
   <si>
     <t>cost /mile [U.S. cents, 2022]</t>
   </si>
+  <si>
+    <t>USD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="###0.00_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="###0.00_)"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -274,7 +278,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" applyNumberFormat="0">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
@@ -284,19 +288,18 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
@@ -1491,7 +1494,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1500,6 +1533,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rail Travel Price per Distance'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fare/101km [EURO, 2022]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1554,167 +1598,167 @@
                   <c:v>1966</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1969</c:v>
+                  <c:v>1970</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1970</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1973</c:v>
+                  <c:v>1974</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1974</c:v>
+                  <c:v>1975</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1975</c:v>
+                  <c:v>1976</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1976</c:v>
+                  <c:v>1977</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1977</c:v>
+                  <c:v>1978</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1978</c:v>
+                  <c:v>1979</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1979</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1980</c:v>
+                  <c:v>1981</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1981</c:v>
+                  <c:v>1982</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1982</c:v>
+                  <c:v>1983</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1983</c:v>
+                  <c:v>1984</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1984</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1985</c:v>
+                  <c:v>1986</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1986</c:v>
+                  <c:v>1987</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1987</c:v>
+                  <c:v>1988</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1988</c:v>
+                  <c:v>1989</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1989</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1990</c:v>
+                  <c:v>1991</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1991</c:v>
+                  <c:v>1992</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1992</c:v>
+                  <c:v>1993</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1993</c:v>
+                  <c:v>1994</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1994</c:v>
+                  <c:v>1995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1995</c:v>
+                  <c:v>1996</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1996</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1997</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1998</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1999</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2000</c:v>
+                  <c:v>2001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2001</c:v>
+                  <c:v>2002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2002</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2003</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2004</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2016</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2017</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2018</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2021</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Rail Travel Price per Distance'!$G$2:$G$63</c:f>
+              <c:f>'Rail Travel Price per Distance'!$H$2:$H$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>27.54</c:v>
                 </c:pt>
@@ -1749,156 +1793,153 @@
                   <c:v>18.744</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.893999999999998</c:v>
+                  <c:v>19.208000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.208000000000002</c:v>
+                  <c:v>18.149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.149999999999999</c:v>
+                  <c:v>18.48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.48</c:v>
+                  <c:v>18.849999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.849999999999998</c:v>
+                  <c:v>18.07</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.07</c:v>
+                  <c:v>17.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.420000000000002</c:v>
+                  <c:v>18.34</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.34</c:v>
+                  <c:v>18.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.899999999999999</c:v>
+                  <c:v>17.849999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.849999999999998</c:v>
+                  <c:v>17.920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.920000000000002</c:v>
+                  <c:v>20.330000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.330000000000002</c:v>
+                  <c:v>19.57</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.57</c:v>
+                  <c:v>20.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.2</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>20.79</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>19.8</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.79</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>19.8</c:v>
+                  <c:v>20.58</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20.58</c:v>
+                  <c:v>19.95</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.95</c:v>
+                  <c:v>20.46</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20.46</c:v>
+                  <c:v>19.580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.580000000000002</c:v>
+                  <c:v>19.78</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19.78</c:v>
+                  <c:v>19.919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>19.919999999999998</c:v>
+                  <c:v>19.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>19.440000000000001</c:v>
+                  <c:v>19.75</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>19.75</c:v>
+                  <c:v>20.28</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>20.28</c:v>
+                  <c:v>20.02</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20.02</c:v>
+                  <c:v>20.52</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20.52</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20.52</c:v>
+                  <c:v>20.25</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20.25</c:v>
+                  <c:v>19.71</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>19.71</c:v>
+                  <c:v>19.599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>19.599999999999998</c:v>
+                  <c:v>19.18</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>19.18</c:v>
+                  <c:v>19.170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>19.170000000000002</c:v>
+                  <c:v>19.550999999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>19.550999999999998</c:v>
+                  <c:v>20.150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>20.150000000000002</c:v>
+                  <c:v>20.827999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>20.827999999999999</c:v>
+                  <c:v>21.293999999999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.293999999999997</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>22</c:v>
+                  <c:v>21.96</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>21.96</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>21.96</c:v>
+                  <c:v>22.419999999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>22.419999999999998</c:v>
+                  <c:v>22.814999999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>22.814999999999998</c:v>
+                  <c:v>23.516999999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>23.516999999999999</c:v>
+                  <c:v>24.011999999999997</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>24.011999999999997</c:v>
+                  <c:v>24.053999999999998</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>24.053999999999998</c:v>
+                  <c:v>24.080000000000002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>24.080000000000002</c:v>
+                  <c:v>25.752000000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>25.752000000000002</c:v>
+                  <c:v>26.180000000000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>26.180000000000003</c:v>
+                  <c:v>26.536000000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>26.536000000000001</c:v>
-                </c:pt>
-                <c:pt idx="61">
                   <c:v>23.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1907,7 +1948,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5824-F64B-91FA-5B99642F2D0B}"/>
+              <c16:uniqueId val="{00000000-FCD6-9249-8F30-1051EF0EFF9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1920,11 +1961,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="192392704"/>
-        <c:axId val="22519520"/>
+        <c:axId val="1237681007"/>
+        <c:axId val="1238157007"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192392704"/>
+        <c:axId val="1237681007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,7 +2008,7 @@
             <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22519520"/>
+        <c:crossAx val="1238157007"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1975,7 +2016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22519520"/>
+        <c:axId val="1238157007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2026,7 +2067,7 @@
             <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192392704"/>
+        <c:crossAx val="1237681007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6884,23 +6925,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8906CE-4238-6A21-C5C6-24B66E0C8338}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050A9BA7-182C-E97A-38D3-2A6A5EF85279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7298,7 +7339,7 @@
   <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7891,7 +7932,7 @@
         <v>5.6</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13:N76" si="1">M13*(100/K13)</f>
+        <f t="shared" ref="N13:N54" si="1">M13*(100/K13)</f>
         <v>62.921348314606732</v>
       </c>
     </row>
@@ -8255,7 +8296,7 @@
         <v>29</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" ref="M21:M62" si="2">E21</f>
+        <f t="shared" ref="M21:M54" si="2">E21</f>
         <v>5.88</v>
       </c>
       <c r="N21">
@@ -11242,49 +11283,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED2F875-3995-9946-A9B6-F56D5030D80F}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="8"/>
+    <col min="1" max="3" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="7">
+      <c r="A2">
         <v>1952</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>5.55</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>1952</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -11299,901 +11340,901 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3">
         <v>1975</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7">
         <v>14.36</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <f>E3</f>
         <v>14.36</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7">
+      <c r="A4">
         <v>1980</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
         <v>21.173333333333332</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:H38" si="0">E4</f>
         <v>21.173333333333332</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7">
+      <c r="A5">
         <v>1985</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7">
         <v>23.226666666666667</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>23.226666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7">
+      <c r="A6">
         <v>1990</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7">
         <v>33.026666666666664</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>33.026666666666664</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7">
+      <c r="A7">
         <v>1991</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7">
         <v>37.340000000000003</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>37.340000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7">
+      <c r="A8">
         <v>1992</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7">
         <v>38.826666666666668</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <f t="shared" si="0"/>
         <v>38.826666666666668</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7">
+      <c r="A9">
         <v>1993</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7">
         <v>38.693333333333335</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
         <v>38.693333333333335</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7">
+      <c r="A10">
         <v>1994</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7">
         <v>39.44</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <f t="shared" si="0"/>
         <v>39.44</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7">
+      <c r="A11">
         <v>1995</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="7">
         <v>41.233333333333334</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <f t="shared" si="0"/>
         <v>41.233333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7">
+      <c r="A12">
         <v>1996</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7">
         <v>42.593333333333334</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <f t="shared" si="0"/>
         <v>42.593333333333334</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7">
+      <c r="A13">
         <v>1997</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="7">
         <v>44.82</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <f t="shared" si="0"/>
         <v>44.82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7">
+      <c r="A14">
         <v>1998</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="7">
         <v>46.053333333333335</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <f t="shared" si="0"/>
         <v>46.053333333333335</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7">
+      <c r="A15">
         <v>1999</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="B15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7">
         <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="7">
+      <c r="A16">
         <v>2000</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="B16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="7">
         <v>49.086666666666666</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <f t="shared" si="0"/>
         <v>49.086666666666666</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="7">
+      <c r="A17">
         <v>2001</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="7">
         <v>51.026666666666664</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <f t="shared" si="0"/>
         <v>51.026666666666664</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7">
+      <c r="A18">
         <v>2002</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="B18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="7">
         <v>50.226666666666667</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <f t="shared" si="0"/>
         <v>50.226666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7">
+      <c r="A19">
         <v>2003</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="B19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="7">
         <v>51.693333333333335</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <f t="shared" si="0"/>
         <v>51.693333333333335</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="7">
+      <c r="A20">
         <v>2004</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="7">
         <v>56.206666666666663</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <f t="shared" si="0"/>
         <v>56.206666666666663</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7">
+      <c r="A21">
         <v>2005</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="B21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="7">
         <v>56.06666666666667</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <f t="shared" si="0"/>
         <v>56.06666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7">
+      <c r="A22">
         <v>2006</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="B22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="7">
         <v>52.226666666666667</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <f t="shared" si="0"/>
         <v>52.226666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7">
+      <c r="A23">
         <v>2007</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="B23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="7">
         <v>52.153333333333336</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <f t="shared" si="0"/>
         <v>52.153333333333336</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="7">
+      <c r="A24">
         <v>2008</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="B24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="7">
         <v>54.14</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <f t="shared" si="0"/>
         <v>54.14</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="7">
+      <c r="A25">
         <v>2009</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="B25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="7">
         <v>53.973333333333336</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <f t="shared" si="0"/>
         <v>53.973333333333336</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="7">
+      <c r="A26">
         <v>2010</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="B26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="7">
         <v>56.58</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <f t="shared" si="0"/>
         <v>56.58</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7">
+      <c r="A27">
         <v>2011</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="B27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="7">
         <v>58.506666666666668</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <f t="shared" si="0"/>
         <v>58.506666666666668</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="7">
+      <c r="A28">
         <v>2012</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="B28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="7">
         <v>59.64</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <f t="shared" si="0"/>
         <v>59.64</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="7">
+      <c r="A29">
         <v>2013</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="8">
+      <c r="B29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="7">
         <v>60.813333333333333</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
         <f t="shared" si="0"/>
         <v>60.813333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="7">
+      <c r="A30">
         <v>2014</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="8">
+      <c r="B30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="7">
         <v>59.173333333333332</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="8">
+      <c r="H30" s="7">
         <f t="shared" si="0"/>
         <v>59.173333333333332</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="7">
+      <c r="A31">
         <v>2015</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="8">
+      <c r="B31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="7">
         <v>57.986666666666665</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <f t="shared" si="0"/>
         <v>57.986666666666665</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="7">
+      <c r="A32">
         <v>2016</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="8">
+      <c r="B32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="7">
         <v>57.053333333333335</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <f t="shared" si="0"/>
         <v>57.053333333333335</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="7">
+      <c r="A33">
         <v>2017</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="8">
+      <c r="B33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="7">
         <v>56.453333333333333</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="8">
+      <c r="H33" s="7">
         <f t="shared" si="0"/>
         <v>56.453333333333333</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="7">
+      <c r="A34">
         <v>2018</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="B34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="7">
         <v>58.993333333333332</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="8">
+      <c r="H34" s="7">
         <f t="shared" si="0"/>
         <v>58.993333333333332</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="7">
+      <c r="A35">
         <v>2019</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="8">
+      <c r="B35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="7">
         <v>61.88</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <f t="shared" si="0"/>
         <v>61.88</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="7">
+      <c r="A36">
         <v>2020</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="8">
+      <c r="B36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="7">
         <v>63.74</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="8">
+      <c r="H36" s="7">
         <f t="shared" si="0"/>
         <v>63.74</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="7">
+      <c r="A37">
         <v>2021</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="8">
+      <c r="B37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="7">
         <v>64.44</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="8">
+      <c r="H37" s="7">
         <f t="shared" si="0"/>
         <v>64.44</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="7">
+      <c r="A38">
         <v>2022</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="8">
+      <c r="B38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="7">
         <v>71.526666666666671</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="8">
+      <c r="H38" s="7">
         <f t="shared" si="0"/>
         <v>71.526666666666671</v>
       </c>
@@ -12211,15 +12252,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91614C36-BDE0-514F-AC13-5DC3D8E97B52}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -12230,19 +12271,22 @@
         <v>33</v>
       </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -12252,21 +12296,24 @@
       <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3.06</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G2">
-        <f>B2*E2</f>
+      <c r="H2">
+        <f>B2*F2</f>
         <v>27.54</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1951</v>
       </c>
@@ -12276,21 +12323,24 @@
       <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.85</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G63" si="0">B3*E3</f>
+      <c r="H3">
+        <f>B3*F3</f>
         <v>25.080000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1952</v>
       </c>
@@ -12300,21 +12350,24 @@
       <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.79</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
+      <c r="H4">
+        <f>B4*F4</f>
         <v>28.457999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1953</v>
       </c>
@@ -12324,21 +12377,24 @@
       <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.83</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
+      <c r="H5">
+        <f>B5*F5</f>
         <v>28.866</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1954</v>
       </c>
@@ -12348,21 +12404,24 @@
       <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.82</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
+      <c r="H6">
+        <f>B6*F6</f>
         <v>28.763999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1956</v>
       </c>
@@ -12372,21 +12431,24 @@
       <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.7</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
+      <c r="H7">
+        <f>B7*F7</f>
         <v>18.36</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1959</v>
       </c>
@@ -12396,21 +12458,24 @@
       <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.57</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
+      <c r="H8">
+        <f>B8*F8</f>
         <v>19.018000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1960</v>
       </c>
@@ -12420,21 +12485,24 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.5299999999999998</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
+      <c r="H9">
+        <f>B9*F9</f>
         <v>18.721999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1962</v>
       </c>
@@ -12444,21 +12512,24 @@
       <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.4</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
+      <c r="H10">
+        <f>B10*F10</f>
         <v>17.760000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1963</v>
       </c>
@@ -12468,21 +12539,24 @@
       <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2.33</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
+      <c r="H11">
+        <f>B11*F11</f>
         <v>19.572000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1966</v>
       </c>
@@ -12492,23 +12566,26 @@
       <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.13</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
+      <c r="H12">
+        <f>B12*F12</f>
         <v>18.744</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B13">
         <v>9.8000000000000007</v>
@@ -12516,95 +12593,107 @@
       <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13">
+        <v>1.96</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>19.893999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <f>B13*F13</f>
+        <v>19.208000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="B14">
-        <v>9.8000000000000007</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14">
-        <v>1.96</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14">
+        <v>1.65</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>19.208000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <f>B14*F14</f>
+        <v>18.149999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15">
-        <v>1.65</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15">
+        <v>1.54</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>18.149999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <f>B15*F15</f>
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E16">
-        <v>1.54</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16">
+        <v>1.45</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>18.48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <f>B16*F16</f>
+        <v>18.849999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B17">
         <v>13</v>
@@ -12612,23 +12701,26 @@
       <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E17">
-        <v>1.45</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17">
+        <v>1.39</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>18.849999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <f>B17*F17</f>
+        <v>18.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B18">
         <v>13</v>
@@ -12636,71 +12728,80 @@
       <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E18">
-        <v>1.39</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18">
+        <v>1.34</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>18.07</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <f>B18*F18</f>
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E19">
-        <v>1.34</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19">
+        <v>1.31</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>17.420000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <f>B19*F19</f>
+        <v>18.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E20">
-        <v>1.31</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20">
+        <v>1.26</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>18.34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <f>B20*F20</f>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -12708,71 +12809,80 @@
       <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E21">
-        <v>1.26</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21">
+        <v>1.19</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <f>B21*F21</f>
+        <v>17.849999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E22">
-        <v>1.19</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>17.849999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <f>B22*F22</f>
+        <v>17.920000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23">
+        <v>1.07</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>17.920000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <f>B23*F23</f>
+        <v>20.330000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B24">
         <v>19</v>
@@ -12780,47 +12890,53 @@
       <c r="C24" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E24">
-        <v>1.07</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24">
+        <v>1.03</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>20.330000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <f>B24*F24</f>
+        <v>19.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E25">
-        <v>1.03</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25">
+        <v>1.01</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>19.57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <f>B25*F25</f>
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B26">
         <v>20</v>
@@ -12828,95 +12944,107 @@
       <c r="C26" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E26">
-        <v>1.01</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26">
+        <v>0.99</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <f>B26*F26</f>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.99</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <f>B27*F27</f>
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.99</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>20.79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <f>B28*F28</f>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E29">
-        <v>0.99</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29">
+        <v>0.98</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <f>B29*F29</f>
+        <v>20.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B30">
         <v>21</v>
@@ -12924,47 +13052,53 @@
       <c r="C30" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E30">
-        <v>0.98</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30">
+        <v>0.95</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>20.58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <f>B30*F30</f>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E31">
-        <v>0.95</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31">
+        <v>0.93</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>19.95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <f>B31*F31</f>
+        <v>20.46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B32">
         <v>22</v>
@@ -12972,71 +13106,80 @@
       <c r="C32" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E32">
-        <v>0.93</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32">
+        <v>0.89</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>20.46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <f>B32*F32</f>
+        <v>19.580000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E33">
-        <v>0.89</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33">
+        <v>0.86</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>19.580000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <f>B33*F33</f>
+        <v>19.78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E34">
-        <v>0.86</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34">
+        <v>0.83</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>19.78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <f>B34*F34</f>
+        <v>19.919999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B35">
         <v>24</v>
@@ -13044,71 +13187,80 @@
       <c r="C35" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E35">
-        <v>0.83</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35">
+        <v>0.81</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>19.919999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <f>B35*F35</f>
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B36">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E36">
-        <v>0.81</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36">
+        <v>0.79</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>19.440000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <f>B36*F36</f>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B37">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E37">
-        <v>0.79</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37">
+        <v>0.78</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>19.75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <f>B37*F37</f>
+        <v>20.28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B38">
         <v>26</v>
@@ -13116,47 +13268,53 @@
       <c r="C38" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E38">
-        <v>0.78</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38">
+        <v>0.77</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>20.28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <f>B38*F38</f>
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B39">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E39">
-        <v>0.77</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39">
+        <v>0.76</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>20.02</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <f>B39*F39</f>
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B40">
         <v>27</v>
@@ -13164,23 +13322,26 @@
       <c r="C40" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>0.76</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
+      <c r="H40">
+        <f>B40*F40</f>
         <v>20.52</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B41">
         <v>27</v>
@@ -13188,23 +13349,26 @@
       <c r="C41" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E41">
-        <v>0.76</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41">
+        <v>0.75</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>20.52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <f>B41*F41</f>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B42">
         <v>27</v>
@@ -13212,47 +13376,53 @@
       <c r="C42" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E42">
-        <v>0.75</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42">
+        <v>0.73</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>20.25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <f>B42*F42</f>
+        <v>19.71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B43">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E43">
-        <v>0.73</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43">
+        <v>1.4</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>19.71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <f>B43*F43</f>
+        <v>19.599999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B44">
         <v>14</v>
@@ -13260,495 +13430,968 @@
       <c r="C44" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E44">
-        <v>1.4</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44">
+        <v>1.37</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>19.599999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <f>B44*F44</f>
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B45">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E45">
-        <v>1.37</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45">
+        <v>1.35</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
-        <v>19.18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <f>B45*F45</f>
+        <v>19.170000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B46">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E46">
-        <v>1.35</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46">
+        <v>1.33</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>19.170000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <f>B46*F46</f>
+        <v>19.550999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B47">
-        <v>14.7</v>
+        <v>15.5</v>
       </c>
       <c r="C47" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E47">
-        <v>1.33</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47">
+        <v>1.3</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>19.550999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <f>B47*F47</f>
+        <v>20.150000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B48">
-        <v>15.5</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C48" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E48">
-        <v>1.3</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48">
+        <v>1.27</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
-        <v>20.150000000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <f>B48*F48</f>
+        <v>20.827999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B49">
-        <v>16.399999999999999</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C49" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E49">
-        <v>1.27</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49">
+        <v>1.26</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="0"/>
-        <v>20.827999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <f>B49*F49</f>
+        <v>21.293999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B50">
-        <v>16.899999999999999</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C50" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50">
-        <v>1.26</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50">
+        <v>1.25</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>21.293999999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <f>B50*F50</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B51">
-        <v>17.600000000000001</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51">
-        <v>1.25</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51">
+        <v>1.22</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <f>B51*F51</f>
+        <v>21.96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="C52" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52">
-        <v>1.22</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52">
+        <v>1.2</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="0"/>
+      <c r="H52">
+        <f>B52*F52</f>
         <v>21.96</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B53">
-        <v>18.3</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53">
-        <v>1.2</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="D53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53">
+        <v>1.18</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
-        <v>21.96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <f>B53*F53</f>
+        <v>22.419999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="C54" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54">
-        <v>1.18</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54">
+        <v>1.17</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="0"/>
-        <v>22.419999999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <f>B54*F54</f>
+        <v>22.814999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B55">
-        <v>19.5</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C55" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55">
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55">
         <v>1.17</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="0"/>
-        <v>22.814999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <f>B55*F55</f>
+        <v>23.516999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B56">
-        <v>20.100000000000001</v>
+        <v>20.7</v>
       </c>
       <c r="C56" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56">
-        <v>1.17</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="0"/>
-        <v>23.516999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <f>B56*F56</f>
+        <v>24.011999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B57">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="C57" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="0"/>
-        <v>24.011999999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <f>B57*F57</f>
+        <v>24.053999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B58">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="C58" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F58" s="1" t="s">
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="0"/>
-        <v>24.053999999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <f>B58*F58</f>
+        <v>24.080000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B59">
-        <v>21.5</v>
+        <v>23.2</v>
       </c>
       <c r="C59" t="s">
         <v>35</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F59" s="1" t="s">
+      <c r="D59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="0"/>
-        <v>24.080000000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <f>B59*F59</f>
+        <v>25.752000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B60">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="C60" t="s">
         <v>35</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="F60" s="1" t="s">
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="0"/>
-        <v>25.752000000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <f>B60*F60</f>
+        <v>26.180000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B61">
-        <v>23.8</v>
+        <v>24.8</v>
       </c>
       <c r="C61" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F61" s="1" t="s">
+      <c r="D61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61">
+        <v>1.07</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="0"/>
-        <v>26.180000000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <f>B61*F61</f>
+        <v>26.536000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B62">
-        <v>24.8</v>
+        <v>23.1</v>
       </c>
       <c r="C62" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62">
+        <f>B62*F62</f>
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="80" spans="15:15">
+      <c r="O80" t="s">
         <v>38</v>
       </c>
-      <c r="E62">
-        <v>1.07</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="0"/>
-        <v>26.536000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63">
-        <v>2021</v>
-      </c>
-      <c r="B63">
-        <v>23.1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="1" t="s">
+    </row>
+    <row r="81" spans="15:15">
+      <c r="O81" t="s">
         <v>38</v>
       </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="0"/>
-        <v>23.1</v>
+    </row>
+    <row r="82" spans="15:15">
+      <c r="O82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="15:15">
+      <c r="O83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="15:15">
+      <c r="O84" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="15:15">
+      <c r="O85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="15:15">
+      <c r="O86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="15:15">
+      <c r="O87" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="15:15">
+      <c r="O88" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="15:15">
+      <c r="O89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="15:15">
+      <c r="O90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="15:15">
+      <c r="O91" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" display="https://www.pro-bahn.de/fakten/fahrpreise.htm" xr:uid="{C89DFBB5-B8D9-4A4C-AD2B-469932BC04CC}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{64D4D09F-C1C4-0B40-95B7-BCD6928A939F}"/>
-    <hyperlink ref="F3:F63" r:id="rId3" display="https://web.archive.org/web/20230405100546/https://www.bundesbank.de/resource/blob/615162/5a2ab631c106f9a6438899323321ec31/mL/kaufkraftaequivalente-historischer-betraege-in-deutschen-waehrungen-data.pdf " xr:uid="{0048472F-79C7-614D-9C9E-8F92F40AA377}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{2065D456-EA36-D544-9E9C-6366665AA82D}"/>
-    <hyperlink ref="D3:D63" r:id="rId5" display="https://web.archive.org/web/20230628212515/https://www.pro-bahn.de/fakten/fahrpreise.htm " xr:uid="{AC9F9759-5135-B04A-A23B-F5546CC9D740}"/>
+    <hyperlink ref="E1" r:id="rId1" display="https://www.pro-bahn.de/fakten/fahrpreise.htm" xr:uid="{C89DFBB5-B8D9-4A4C-AD2B-469932BC04CC}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{64D4D09F-C1C4-0B40-95B7-BCD6928A939F}"/>
+    <hyperlink ref="F3:F62" r:id="rId3" display="https://web.archive.org/web/20230405100546/https://www.bundesbank.de/resource/blob/615162/5a2ab631c106f9a6438899323321ec31/mL/kaufkraftaequivalente-historischer-betraege-in-deutschen-waehrungen-data.pdf " xr:uid="{0048472F-79C7-614D-9C9E-8F92F40AA377}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{2065D456-EA36-D544-9E9C-6366665AA82D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64521717-511F-4841-AAE2-37435401316E}">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1950</v>
+      </c>
+      <c r="B1">
+        <v>4.1950000000000003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1951</v>
+      </c>
+      <c r="B2">
+        <v>4.1950000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1952</v>
+      </c>
+      <c r="B3">
+        <v>4.1950000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1953</v>
+      </c>
+      <c r="B4">
+        <v>4.1950000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1954</v>
+      </c>
+      <c r="B5">
+        <v>4.1950000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>1955</v>
+      </c>
+      <c r="B6">
+        <v>4.2080000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>1956</v>
+      </c>
+      <c r="B7">
+        <v>4.2039999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>1957</v>
+      </c>
+      <c r="B8">
+        <v>4.202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>1958</v>
+      </c>
+      <c r="B9">
+        <v>4.1929999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>1959</v>
+      </c>
+      <c r="B10">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>1960</v>
+      </c>
+      <c r="B11">
+        <v>4.1710000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>1961</v>
+      </c>
+      <c r="B12">
+        <v>4.016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>1962</v>
+      </c>
+      <c r="B13">
+        <v>3.9980000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>1963</v>
+      </c>
+      <c r="B14">
+        <v>3.9870000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>1964</v>
+      </c>
+      <c r="B15">
+        <v>3.9750000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1965</v>
+      </c>
+      <c r="B16">
+        <v>3.9940000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1966</v>
+      </c>
+      <c r="B17">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1967</v>
+      </c>
+      <c r="B18">
+        <v>3.9870000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1968</v>
+      </c>
+      <c r="B19">
+        <v>3.992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1969</v>
+      </c>
+      <c r="B20">
+        <v>3.923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1970</v>
+      </c>
+      <c r="B21">
+        <v>3.6459999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1971</v>
+      </c>
+      <c r="B22">
+        <v>3.476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1972</v>
+      </c>
+      <c r="B23">
+        <v>3.1880000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1973</v>
+      </c>
+      <c r="B24">
+        <v>2.6480000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1974</v>
+      </c>
+      <c r="B25">
+        <v>2.5819999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>1975</v>
+      </c>
+      <c r="B26">
+        <v>2.4550000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>1976</v>
+      </c>
+      <c r="B27">
+        <v>2.5169999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1977</v>
+      </c>
+      <c r="B28">
+        <v>2.3210000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1978</v>
+      </c>
+      <c r="B29">
+        <v>2.0049999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>1979</v>
+      </c>
+      <c r="B30">
+        <v>1.8340000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>1980</v>
+      </c>
+      <c r="B31">
+        <v>1.8180000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>1981</v>
+      </c>
+      <c r="B32">
+        <v>2.2629999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>1982</v>
+      </c>
+      <c r="B33">
+        <v>2.4279999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>1983</v>
+      </c>
+      <c r="B34">
+        <v>2.5539999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>1984</v>
+      </c>
+      <c r="B35">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>1985</v>
+      </c>
+      <c r="B36">
+        <v>2.9420000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>1986</v>
+      </c>
+      <c r="B37">
+        <v>2.1709999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1987</v>
+      </c>
+      <c r="B38">
+        <v>1.798</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>1988</v>
+      </c>
+      <c r="B39">
+        <v>1.7569999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>1989</v>
+      </c>
+      <c r="B40">
+        <v>1.881</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>1990</v>
+      </c>
+      <c r="B41">
+        <v>1.617</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>1991</v>
+      </c>
+      <c r="B42">
+        <v>1.661</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>1992</v>
+      </c>
+      <c r="B43">
+        <v>1.5620000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>1993</v>
+      </c>
+      <c r="B44">
+        <v>1.655</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>1994</v>
+      </c>
+      <c r="B45">
+        <v>1.6220000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>1995</v>
+      </c>
+      <c r="B46">
+        <v>1.4319999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>1996</v>
+      </c>
+      <c r="B47">
+        <v>1.5049999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>1997</v>
+      </c>
+      <c r="B48">
+        <v>1.7350000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>1998</v>
+      </c>
+      <c r="B49">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>1999</v>
+      </c>
+      <c r="B50">
+        <v>2.0840000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D331B3-2FB3-C24E-8D11-D5A2CFFA1184}">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView topLeftCell="A12" zoomScale="137" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/4_aviation/historical_fares/data/data.xlsx
+++ b/4_aviation/historical_fares/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/historical_fares/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFADCC82-4719-CD40-B632-DD5071B751F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE507FF8-5E84-1948-93FA-BCE881904D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{A35E4E3F-0E3D-DE43-9112-76309508C74C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{A35E4E3F-0E3D-DE43-9112-76309508C74C}"/>
   </bookViews>
   <sheets>
     <sheet name="Air Travel Price per Distance" sheetId="4" r:id="rId1"/>
@@ -7338,8 +7338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323E1393-B7A4-674A-98D9-1A04B4AAF74B}">
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="107" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12254,8 +12254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91614C36-BDE0-514F-AC13-5DC3D8E97B52}">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12309,7 +12309,7 @@
         <v>37</v>
       </c>
       <c r="H2">
-        <f>B2*F2</f>
+        <f t="shared" ref="H2:H33" si="0">B2*F2</f>
         <v>27.54</v>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
         <v>37</v>
       </c>
       <c r="H3">
-        <f>B3*F3</f>
+        <f t="shared" si="0"/>
         <v>25.080000000000002</v>
       </c>
     </row>
@@ -12363,7 +12363,7 @@
         <v>37</v>
       </c>
       <c r="H4">
-        <f>B4*F4</f>
+        <f t="shared" si="0"/>
         <v>28.457999999999998</v>
       </c>
     </row>
@@ -12390,7 +12390,7 @@
         <v>37</v>
       </c>
       <c r="H5">
-        <f>B5*F5</f>
+        <f t="shared" si="0"/>
         <v>28.866</v>
       </c>
     </row>
@@ -12417,7 +12417,7 @@
         <v>37</v>
       </c>
       <c r="H6">
-        <f>B6*F6</f>
+        <f t="shared" si="0"/>
         <v>28.763999999999996</v>
       </c>
     </row>
@@ -12444,7 +12444,7 @@
         <v>37</v>
       </c>
       <c r="H7">
-        <f>B7*F7</f>
+        <f t="shared" si="0"/>
         <v>18.36</v>
       </c>
     </row>
@@ -12471,7 +12471,7 @@
         <v>37</v>
       </c>
       <c r="H8">
-        <f>B8*F8</f>
+        <f t="shared" si="0"/>
         <v>19.018000000000001</v>
       </c>
     </row>
@@ -12498,7 +12498,7 @@
         <v>37</v>
       </c>
       <c r="H9">
-        <f>B9*F9</f>
+        <f t="shared" si="0"/>
         <v>18.721999999999998</v>
       </c>
     </row>
@@ -12525,7 +12525,7 @@
         <v>37</v>
       </c>
       <c r="H10">
-        <f>B10*F10</f>
+        <f t="shared" si="0"/>
         <v>17.760000000000002</v>
       </c>
     </row>
@@ -12552,7 +12552,7 @@
         <v>37</v>
       </c>
       <c r="H11">
-        <f>B11*F11</f>
+        <f t="shared" si="0"/>
         <v>19.572000000000003</v>
       </c>
     </row>
@@ -12579,7 +12579,7 @@
         <v>37</v>
       </c>
       <c r="H12">
-        <f>B12*F12</f>
+        <f t="shared" si="0"/>
         <v>18.744</v>
       </c>
     </row>
@@ -12606,7 +12606,7 @@
         <v>37</v>
       </c>
       <c r="H13">
-        <f>B13*F13</f>
+        <f t="shared" si="0"/>
         <v>19.208000000000002</v>
       </c>
     </row>
@@ -12633,7 +12633,7 @@
         <v>37</v>
       </c>
       <c r="H14">
-        <f>B14*F14</f>
+        <f t="shared" si="0"/>
         <v>18.149999999999999</v>
       </c>
     </row>
@@ -12660,7 +12660,7 @@
         <v>37</v>
       </c>
       <c r="H15">
-        <f>B15*F15</f>
+        <f t="shared" si="0"/>
         <v>18.48</v>
       </c>
     </row>
@@ -12687,7 +12687,7 @@
         <v>37</v>
       </c>
       <c r="H16">
-        <f>B16*F16</f>
+        <f t="shared" si="0"/>
         <v>18.849999999999998</v>
       </c>
     </row>
@@ -12714,7 +12714,7 @@
         <v>37</v>
       </c>
       <c r="H17">
-        <f>B17*F17</f>
+        <f t="shared" si="0"/>
         <v>18.07</v>
       </c>
     </row>
@@ -12741,7 +12741,7 @@
         <v>37</v>
       </c>
       <c r="H18">
-        <f>B18*F18</f>
+        <f t="shared" si="0"/>
         <v>17.420000000000002</v>
       </c>
     </row>
@@ -12768,7 +12768,7 @@
         <v>37</v>
       </c>
       <c r="H19">
-        <f>B19*F19</f>
+        <f t="shared" si="0"/>
         <v>18.34</v>
       </c>
     </row>
@@ -12795,7 +12795,7 @@
         <v>37</v>
       </c>
       <c r="H20">
-        <f>B20*F20</f>
+        <f t="shared" si="0"/>
         <v>18.899999999999999</v>
       </c>
     </row>
@@ -12822,7 +12822,7 @@
         <v>37</v>
       </c>
       <c r="H21">
-        <f>B21*F21</f>
+        <f t="shared" si="0"/>
         <v>17.849999999999998</v>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
         <v>37</v>
       </c>
       <c r="H22">
-        <f>B22*F22</f>
+        <f t="shared" si="0"/>
         <v>17.920000000000002</v>
       </c>
     </row>
@@ -12876,7 +12876,7 @@
         <v>37</v>
       </c>
       <c r="H23">
-        <f>B23*F23</f>
+        <f t="shared" si="0"/>
         <v>20.330000000000002</v>
       </c>
     </row>
@@ -12903,7 +12903,7 @@
         <v>37</v>
       </c>
       <c r="H24">
-        <f>B24*F24</f>
+        <f t="shared" si="0"/>
         <v>19.57</v>
       </c>
     </row>
@@ -12930,7 +12930,7 @@
         <v>37</v>
       </c>
       <c r="H25">
-        <f>B25*F25</f>
+        <f t="shared" si="0"/>
         <v>20.2</v>
       </c>
     </row>
@@ -12957,7 +12957,7 @@
         <v>37</v>
       </c>
       <c r="H26">
-        <f>B26*F26</f>
+        <f t="shared" si="0"/>
         <v>19.8</v>
       </c>
     </row>
@@ -12984,7 +12984,7 @@
         <v>37</v>
       </c>
       <c r="H27">
-        <f>B27*F27</f>
+        <f t="shared" si="0"/>
         <v>20.79</v>
       </c>
     </row>
@@ -13011,7 +13011,7 @@
         <v>37</v>
       </c>
       <c r="H28">
-        <f>B28*F28</f>
+        <f t="shared" si="0"/>
         <v>19.8</v>
       </c>
     </row>
@@ -13038,7 +13038,7 @@
         <v>37</v>
       </c>
       <c r="H29">
-        <f>B29*F29</f>
+        <f t="shared" si="0"/>
         <v>20.58</v>
       </c>
     </row>
@@ -13065,7 +13065,7 @@
         <v>37</v>
       </c>
       <c r="H30">
-        <f>B30*F30</f>
+        <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
     </row>
@@ -13092,7 +13092,7 @@
         <v>37</v>
       </c>
       <c r="H31">
-        <f>B31*F31</f>
+        <f t="shared" si="0"/>
         <v>20.46</v>
       </c>
     </row>
@@ -13119,7 +13119,7 @@
         <v>37</v>
       </c>
       <c r="H32">
-        <f>B32*F32</f>
+        <f t="shared" si="0"/>
         <v>19.580000000000002</v>
       </c>
     </row>
@@ -13146,7 +13146,7 @@
         <v>37</v>
       </c>
       <c r="H33">
-        <f>B33*F33</f>
+        <f t="shared" si="0"/>
         <v>19.78</v>
       </c>
     </row>
@@ -13173,7 +13173,7 @@
         <v>37</v>
       </c>
       <c r="H34">
-        <f>B34*F34</f>
+        <f t="shared" ref="H34:H62" si="1">B34*F34</f>
         <v>19.919999999999998</v>
       </c>
     </row>
@@ -13200,7 +13200,7 @@
         <v>37</v>
       </c>
       <c r="H35">
-        <f>B35*F35</f>
+        <f t="shared" si="1"/>
         <v>19.440000000000001</v>
       </c>
     </row>
@@ -13227,7 +13227,7 @@
         <v>37</v>
       </c>
       <c r="H36">
-        <f>B36*F36</f>
+        <f t="shared" si="1"/>
         <v>19.75</v>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
         <v>37</v>
       </c>
       <c r="H37">
-        <f>B37*F37</f>
+        <f t="shared" si="1"/>
         <v>20.28</v>
       </c>
     </row>
@@ -13281,7 +13281,7 @@
         <v>37</v>
       </c>
       <c r="H38">
-        <f>B38*F38</f>
+        <f t="shared" si="1"/>
         <v>20.02</v>
       </c>
     </row>
@@ -13308,7 +13308,7 @@
         <v>37</v>
       </c>
       <c r="H39">
-        <f>B39*F39</f>
+        <f t="shared" si="1"/>
         <v>20.52</v>
       </c>
     </row>
@@ -13335,7 +13335,7 @@
         <v>37</v>
       </c>
       <c r="H40">
-        <f>B40*F40</f>
+        <f t="shared" si="1"/>
         <v>20.52</v>
       </c>
     </row>
@@ -13362,7 +13362,7 @@
         <v>37</v>
       </c>
       <c r="H41">
-        <f>B41*F41</f>
+        <f t="shared" si="1"/>
         <v>20.25</v>
       </c>
     </row>
@@ -13389,7 +13389,7 @@
         <v>37</v>
       </c>
       <c r="H42">
-        <f>B42*F42</f>
+        <f t="shared" si="1"/>
         <v>19.71</v>
       </c>
     </row>
@@ -13416,7 +13416,7 @@
         <v>37</v>
       </c>
       <c r="H43">
-        <f>B43*F43</f>
+        <f t="shared" si="1"/>
         <v>19.599999999999998</v>
       </c>
     </row>
@@ -13443,7 +13443,7 @@
         <v>37</v>
       </c>
       <c r="H44">
-        <f>B44*F44</f>
+        <f t="shared" si="1"/>
         <v>19.18</v>
       </c>
     </row>
@@ -13470,7 +13470,7 @@
         <v>37</v>
       </c>
       <c r="H45">
-        <f>B45*F45</f>
+        <f t="shared" si="1"/>
         <v>19.170000000000002</v>
       </c>
     </row>
@@ -13497,7 +13497,7 @@
         <v>37</v>
       </c>
       <c r="H46">
-        <f>B46*F46</f>
+        <f t="shared" si="1"/>
         <v>19.550999999999998</v>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
         <v>37</v>
       </c>
       <c r="H47">
-        <f>B47*F47</f>
+        <f t="shared" si="1"/>
         <v>20.150000000000002</v>
       </c>
     </row>
@@ -13551,7 +13551,7 @@
         <v>37</v>
       </c>
       <c r="H48">
-        <f>B48*F48</f>
+        <f t="shared" si="1"/>
         <v>20.827999999999999</v>
       </c>
     </row>
@@ -13578,7 +13578,7 @@
         <v>37</v>
       </c>
       <c r="H49">
-        <f>B49*F49</f>
+        <f t="shared" si="1"/>
         <v>21.293999999999997</v>
       </c>
     </row>
@@ -13602,7 +13602,7 @@
         <v>37</v>
       </c>
       <c r="H50">
-        <f>B50*F50</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
@@ -13626,7 +13626,7 @@
         <v>37</v>
       </c>
       <c r="H51">
-        <f>B51*F51</f>
+        <f t="shared" si="1"/>
         <v>21.96</v>
       </c>
     </row>
@@ -13650,7 +13650,7 @@
         <v>37</v>
       </c>
       <c r="H52">
-        <f>B52*F52</f>
+        <f t="shared" si="1"/>
         <v>21.96</v>
       </c>
     </row>
@@ -13674,7 +13674,7 @@
         <v>37</v>
       </c>
       <c r="H53">
-        <f>B53*F53</f>
+        <f t="shared" si="1"/>
         <v>22.419999999999998</v>
       </c>
     </row>
@@ -13698,7 +13698,7 @@
         <v>37</v>
       </c>
       <c r="H54">
-        <f>B54*F54</f>
+        <f t="shared" si="1"/>
         <v>22.814999999999998</v>
       </c>
     </row>
@@ -13722,7 +13722,7 @@
         <v>37</v>
       </c>
       <c r="H55">
-        <f>B55*F55</f>
+        <f t="shared" si="1"/>
         <v>23.516999999999999</v>
       </c>
     </row>
@@ -13746,7 +13746,7 @@
         <v>37</v>
       </c>
       <c r="H56">
-        <f>B56*F56</f>
+        <f t="shared" si="1"/>
         <v>24.011999999999997</v>
       </c>
     </row>
@@ -13770,7 +13770,7 @@
         <v>37</v>
       </c>
       <c r="H57">
-        <f>B57*F57</f>
+        <f t="shared" si="1"/>
         <v>24.053999999999998</v>
       </c>
     </row>
@@ -13794,7 +13794,7 @@
         <v>37</v>
       </c>
       <c r="H58">
-        <f>B58*F58</f>
+        <f t="shared" si="1"/>
         <v>24.080000000000002</v>
       </c>
     </row>
@@ -13818,7 +13818,7 @@
         <v>37</v>
       </c>
       <c r="H59">
-        <f>B59*F59</f>
+        <f t="shared" si="1"/>
         <v>25.752000000000002</v>
       </c>
     </row>
@@ -13842,7 +13842,7 @@
         <v>37</v>
       </c>
       <c r="H60">
-        <f>B60*F60</f>
+        <f t="shared" si="1"/>
         <v>26.180000000000003</v>
       </c>
     </row>
@@ -13866,7 +13866,7 @@
         <v>37</v>
       </c>
       <c r="H61">
-        <f>B61*F61</f>
+        <f t="shared" si="1"/>
         <v>26.536000000000001</v>
       </c>
     </row>
@@ -13890,7 +13890,7 @@
         <v>37</v>
       </c>
       <c r="H62">
-        <f>B62*F62</f>
+        <f t="shared" si="1"/>
         <v>23.1</v>
       </c>
     </row>
@@ -13965,9 +13965,10 @@
     <hyperlink ref="G2" r:id="rId2" xr:uid="{64D4D09F-C1C4-0B40-95B7-BCD6928A939F}"/>
     <hyperlink ref="F3:F62" r:id="rId3" display="https://web.archive.org/web/20230405100546/https://www.bundesbank.de/resource/blob/615162/5a2ab631c106f9a6438899323321ec31/mL/kaufkraftaequivalente-historischer-betraege-in-deutschen-waehrungen-data.pdf " xr:uid="{0048472F-79C7-614D-9C9E-8F92F40AA377}"/>
     <hyperlink ref="E2" r:id="rId4" xr:uid="{2065D456-EA36-D544-9E9C-6366665AA82D}"/>
+    <hyperlink ref="G12" r:id="rId5" xr:uid="{6246004E-B11F-5B40-A038-DBD6272040C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
